--- a/templates/removeakt.xlsx
+++ b/templates/removeakt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\yii2test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\yii2test_ps\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +58,13 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -84,9 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -96,6 +102,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -428,61 +436,62 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="11" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="5" customWidth="1"/>
+    <col min="8" max="11" width="14.5703125" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="I1" s="2" t="s">
+    <row r="1" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
